--- a/stock_data_mod_single.xlsx
+++ b/stock_data_mod_single.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG201"/>
+  <dimension ref="A1:AG203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18857,37 +18863,37 @@
         <v>208</v>
       </c>
       <c r="B177">
-        <v>272.2010815407265</v>
+        <v>297</v>
       </c>
       <c r="C177">
-        <v>-0.05255449667169054</v>
+        <v>0.0337626613963562</v>
       </c>
       <c r="D177">
-        <v>0.0371840714547611</v>
+        <v>0.0371840714547608</v>
       </c>
       <c r="E177">
-        <v>0.276888834635417</v>
+        <v>0.2768888346354166</v>
       </c>
       <c r="F177">
-        <v>-0.0277496182979059</v>
+        <v>-0.0277496182979061</v>
       </c>
       <c r="G177">
-        <v>-0.281750030517578</v>
+        <v>-0.2817500305175781</v>
       </c>
       <c r="H177">
-        <v>0.384578254423946</v>
+        <v>0.3845782544239458</v>
       </c>
       <c r="I177">
-        <v>32.77028252913253</v>
+        <v>32.77028252913254</v>
       </c>
       <c r="J177">
-        <v>28.93567118226301</v>
+        <v>28.935671182263</v>
       </c>
       <c r="K177">
-        <v>131.0811301165301</v>
+        <v>132.2727424797971</v>
       </c>
       <c r="L177">
-        <v>115.742684729052</v>
+        <v>114.9879218462056</v>
       </c>
       <c r="M177">
         <v>6078400000</v>
@@ -18950,7 +18956,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG177">
-        <v>47.04714791865091</v>
+        <v>47.04714791865089</v>
       </c>
     </row>
     <row r="178" spans="1:33">
@@ -18958,37 +18964,37 @@
         <v>209</v>
       </c>
       <c r="B178">
-        <v>258.0243570756522</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="C178">
-        <v>-0.05208180799587744</v>
+        <v>-0.0013467807962437</v>
       </c>
       <c r="D178">
-        <v>-0.006565395836764631</v>
+        <v>0.083941605839416</v>
       </c>
       <c r="E178">
-        <v>0.2097825846254511</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="F178">
-        <v>-0.03303345811464842</v>
+        <v>0.0550621669626998</v>
       </c>
       <c r="G178">
-        <v>-0.3275664778924321</v>
+        <v>-0.2663043257009733</v>
       </c>
       <c r="H178">
-        <v>0.3149810702450555</v>
+        <v>0.4347826086956521</v>
       </c>
       <c r="I178">
-        <v>32.07363546660868</v>
+        <v>32.45984714370564</v>
       </c>
       <c r="J178">
-        <v>28.9968063014405</v>
+        <v>29.26659332401971</v>
       </c>
       <c r="K178">
-        <v>128.2945418664347</v>
+        <v>131.0811301165302</v>
       </c>
       <c r="L178">
-        <v>115.987225205762</v>
+        <v>115.742684729052</v>
       </c>
       <c r="M178">
         <v>6078400000</v>
@@ -19051,7 +19057,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG178">
-        <v>44.57460873994763</v>
+        <v>48.63558484349259</v>
       </c>
     </row>
     <row r="179" spans="1:33">
@@ -19059,37 +19065,37 @@
         <v>210</v>
       </c>
       <c r="B179">
-        <v>244.7870844949701</v>
+        <v>311.8257401043357</v>
       </c>
       <c r="C179">
-        <v>-0.05130241474374045</v>
+        <v>0.051334233605869</v>
       </c>
       <c r="D179">
-        <v>-0.0695118339915245</v>
+        <v>0.06959978059918326</v>
       </c>
       <c r="E179">
-        <v>0.173905156929836</v>
+        <v>0.3494085622631824</v>
       </c>
       <c r="F179">
-        <v>-0.09465137868192219</v>
+        <v>0.04070177580180911</v>
       </c>
       <c r="G179">
-        <v>-0.3625880314808301</v>
+        <v>-0.2672924529454063</v>
       </c>
       <c r="H179">
-        <v>0.2165221577114105</v>
+        <v>0.3983969710908903</v>
       </c>
       <c r="I179">
-        <v>31.35925467540256</v>
+        <v>32.06593891818989</v>
       </c>
       <c r="J179">
-        <v>28.9620666804425</v>
+        <v>29.56593478630194</v>
       </c>
       <c r="K179">
-        <v>125.4370187016102</v>
+        <v>128.2637556727595</v>
       </c>
       <c r="L179">
-        <v>115.84826672177</v>
+        <v>118.2637391452078</v>
       </c>
       <c r="M179">
         <v>6078400000</v>
@@ -19152,7 +19158,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG179">
-        <v>42.25308252606231</v>
+        <v>48.57008337181129</v>
       </c>
     </row>
     <row r="180" spans="1:33">
@@ -19160,37 +19166,37 @@
         <v>211</v>
       </c>
       <c r="B180">
-        <v>232.4881019224336</v>
+        <v>327.3856710781847</v>
       </c>
       <c r="C180">
-        <v>-0.05024359270388393</v>
+        <v>0.04989944373624403</v>
       </c>
       <c r="D180">
-        <v>-0.1098651472910178</v>
+        <v>0.1339117821975844</v>
       </c>
       <c r="E180">
-        <v>0.1036387787508197</v>
+        <v>0.4058869964558569</v>
       </c>
       <c r="F180">
-        <v>-0.1500448455035761</v>
+        <v>0.08272826425116553</v>
       </c>
       <c r="G180">
-        <v>-0.450163796533912</v>
+        <v>-0.2995828132203028</v>
       </c>
       <c r="H180">
-        <v>0.1126685658862276</v>
+        <v>0.4173897277469805</v>
       </c>
       <c r="I180">
-        <v>30.72976651043104</v>
+        <v>31.94790399540756</v>
       </c>
       <c r="J180">
-        <v>28.85097064967519</v>
+        <v>30.04899329222039</v>
       </c>
       <c r="K180">
-        <v>122.9190660417241</v>
+        <v>127.7916159816302</v>
       </c>
       <c r="L180">
-        <v>115.4038825987008</v>
+        <v>120.1959731688816</v>
       </c>
       <c r="M180">
         <v>6078400000</v>
@@ -19253,7 +19259,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG180">
-        <v>40.08539736210878</v>
+        <v>51.06339137787639</v>
       </c>
     </row>
     <row r="181" spans="1:33">
@@ -19261,37 +19267,37 @@
         <v>212</v>
       </c>
       <c r="B181">
-        <v>220.8763565940782</v>
+        <v>343.2478672370232</v>
       </c>
       <c r="C181">
-        <v>-0.0499455465993246</v>
+        <v>0.0484511008273493</v>
       </c>
       <c r="D181">
-        <v>-0.1684975076990517</v>
+        <v>0.1709072386678614</v>
       </c>
       <c r="E181">
-        <v>0.07038722462705427</v>
+        <v>0.5073005325879412</v>
       </c>
       <c r="F181">
-        <v>-0.1859660470799557</v>
+        <v>0.1463083476249081</v>
       </c>
       <c r="G181">
-        <v>-0.4532264928317208</v>
+        <v>-0.2300431286940332</v>
       </c>
       <c r="H181">
-        <v>0.03328045298859372</v>
+        <v>0.455047427014154</v>
       </c>
       <c r="I181">
-        <v>30.34816368935568</v>
+        <v>32.2402759536621</v>
       </c>
       <c r="J181">
-        <v>28.81291571395702</v>
+        <v>30.86852321124426</v>
       </c>
       <c r="K181">
-        <v>121.3926547574227</v>
+        <v>128.9611038146484</v>
       </c>
       <c r="L181">
-        <v>115.2516628558281</v>
+        <v>123.474092844977</v>
       </c>
       <c r="M181">
         <v>6078400000</v>
@@ -19354,7 +19360,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG181">
-        <v>38.07136298367364</v>
+        <v>53.61142620291854</v>
       </c>
     </row>
     <row r="182" spans="1:33">
@@ -19362,37 +19368,37 @@
         <v>213</v>
       </c>
       <c r="B182">
-        <v>209.8073246370521</v>
+        <v>359.1442255234446</v>
       </c>
       <c r="C182">
-        <v>-0.05011415494039742</v>
+        <v>0.04631160104323211</v>
       </c>
       <c r="D182">
-        <v>-0.2063371675086413</v>
+        <v>0.2333736338226864</v>
       </c>
       <c r="E182">
-        <v>0.01739452042558653</v>
+        <v>0.5810587636435118</v>
       </c>
       <c r="F182">
-        <v>-0.2164726449934387</v>
+        <v>0.21762282606883</v>
       </c>
       <c r="G182">
-        <v>-0.4802909256609925</v>
+        <v>-0.1923579594422983</v>
       </c>
       <c r="H182">
-        <v>-0.04794673881862854</v>
+        <v>0.4795166691251</v>
       </c>
       <c r="I182">
-        <v>30.48873661711784</v>
+        <v>33.20718983589359</v>
       </c>
       <c r="J182">
-        <v>28.83413708038024</v>
+        <v>32.01987957047969</v>
       </c>
       <c r="K182">
-        <v>121.9549464684713</v>
+        <v>132.8287593435743</v>
       </c>
       <c r="L182">
-        <v>115.336548321521</v>
+        <v>128.0795182819188</v>
       </c>
       <c r="M182">
         <v>6078400000</v>
@@ -19455,7 +19461,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG182">
-        <v>36.16986794967277</v>
+        <v>56.20895881937415</v>
       </c>
     </row>
     <row r="183" spans="1:33">
@@ -19463,37 +19469,37 @@
         <v>214</v>
       </c>
       <c r="B183">
-        <v>199.2585689599831</v>
+        <v>374.9844854816722</v>
       </c>
       <c r="C183">
-        <v>-0.05027830031824385</v>
+        <v>0.04410556771486682</v>
       </c>
       <c r="D183">
-        <v>-0.2588932528657879</v>
+        <v>0.2686125672216457</v>
       </c>
       <c r="E183">
-        <v>-0.03314596941450665</v>
+        <v>0.6550425139329243</v>
       </c>
       <c r="F183">
-        <v>-0.2681991081132343</v>
+        <v>0.2526829795322787</v>
       </c>
       <c r="G183">
-        <v>-0.4944401815974649</v>
+        <v>-0.1345922276543504</v>
       </c>
       <c r="H183">
-        <v>-0.08779424070846931</v>
+        <v>0.5614966327106286</v>
       </c>
       <c r="I183">
-        <v>31.06086188330111</v>
+        <v>34.70879642908302</v>
       </c>
       <c r="J183">
-        <v>28.9193689939293</v>
+        <v>33.50793427691715</v>
       </c>
       <c r="K183">
-        <v>124.2434475332045</v>
+        <v>138.835185716332</v>
       </c>
       <c r="L183">
-        <v>115.6774759757172</v>
+        <v>134.0317371076686</v>
       </c>
       <c r="M183">
         <v>6078400000</v>
@@ -19556,7 +19562,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG183">
-        <v>34.35724558306915</v>
+        <v>58.81208569527247</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -19564,37 +19570,37 @@
         <v>215</v>
       </c>
       <c r="B184">
-        <v>189.046015763629</v>
+        <v>390.7596784414708</v>
       </c>
       <c r="C184">
-        <v>-0.05125276794698364</v>
+        <v>0.04206892170361426</v>
       </c>
       <c r="D184">
-        <v>-0.3152626496220513</v>
+        <v>0.2886064793184613</v>
       </c>
       <c r="E184">
-        <v>-0.114406360177853</v>
+        <v>0.6665977132518766</v>
       </c>
       <c r="F184">
-        <v>-0.3102853126698946</v>
+        <v>0.2979733243470843</v>
       </c>
       <c r="G184">
-        <v>-0.4734181496459207</v>
+        <v>-0.00902618517416387</v>
       </c>
       <c r="H184">
-        <v>-0.1560416611229557</v>
+        <v>0.5882442854205776</v>
       </c>
       <c r="I184">
-        <v>32.14290481172222</v>
+        <v>36.78110011112503</v>
       </c>
       <c r="J184">
-        <v>29.12682626407827</v>
+        <v>35.36600912386213</v>
       </c>
       <c r="K184">
-        <v>128.5716192468889</v>
+        <v>147.1244004445001</v>
       </c>
       <c r="L184">
-        <v>116.5073050563131</v>
+        <v>141.4640364954485</v>
       </c>
       <c r="M184">
         <v>6078400000</v>
@@ -19657,7 +19663,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG184">
-        <v>32.62982167153594</v>
+        <v>61.40602612335785</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -19665,37 +19671,37 @@
         <v>216</v>
       </c>
       <c r="B185">
-        <v>179.1677870600595</v>
+        <v>406.2266359827938</v>
       </c>
       <c r="C185">
-        <v>-0.05225303830745998</v>
+        <v>0.03958176443130536</v>
       </c>
       <c r="D185">
-        <v>-0.352582137795791</v>
+        <v>0.3382180768543519</v>
       </c>
       <c r="E185">
-        <v>-0.1586737056913523</v>
+        <v>0.7390284100959694</v>
       </c>
       <c r="F185">
-        <v>-0.3516940610196035</v>
+        <v>0.3400537388972285</v>
       </c>
       <c r="G185">
-        <v>-0.521402491737648</v>
+        <v>-0.01073499128741573</v>
       </c>
       <c r="H185">
-        <v>-0.1974272412890199</v>
+        <v>0.6589245314321159</v>
       </c>
       <c r="I185">
-        <v>33.63348129840752</v>
+        <v>39.24415155832909</v>
       </c>
       <c r="J185">
-        <v>29.46015229161801</v>
+        <v>37.57448477336537</v>
       </c>
       <c r="K185">
-        <v>134.5339251936301</v>
+        <v>156.9766062333164</v>
       </c>
       <c r="L185">
-        <v>117.8406091664721</v>
+        <v>150.2979390934615</v>
       </c>
       <c r="M185">
         <v>6078400000</v>
@@ -19758,7 +19764,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG185">
-        <v>30.95745299325326</v>
+        <v>63.9893114284715</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -19766,37 +19772,37 @@
         <v>217</v>
       </c>
       <c r="B186">
-        <v>169.5933981325303</v>
+        <v>421.1772925284512</v>
       </c>
       <c r="C186">
-        <v>-0.05343811566037621</v>
+        <v>0.03680373274757558</v>
       </c>
       <c r="D186">
-        <v>-0.3947034220943937</v>
+        <v>0.3723872837256545</v>
       </c>
       <c r="E186">
-        <v>-0.2026355607769355</v>
+        <v>0.8078622229637358</v>
       </c>
       <c r="F186">
-        <v>-0.3823930255412422</v>
+        <v>0.4002986123269539</v>
       </c>
       <c r="G186">
-        <v>-0.5520805323498514</v>
+        <v>0.01556658995698434</v>
       </c>
       <c r="H186">
-        <v>-0.2457681129937849</v>
+        <v>0.7100679047109268</v>
       </c>
       <c r="I186">
-        <v>35.73767467131878</v>
+        <v>42.31669541211793</v>
       </c>
       <c r="J186">
-        <v>29.8988674466245</v>
+        <v>40.09088681445217</v>
       </c>
       <c r="K186">
-        <v>142.9506986852751</v>
+        <v>169.2667816484717</v>
       </c>
       <c r="L186">
-        <v>119.595469786498</v>
+        <v>160.3635472578087</v>
       </c>
       <c r="M186">
         <v>6078400000</v>
@@ -19859,7 +19865,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG186">
-        <v>29.3398320160954</v>
+        <v>66.5221212795547</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -19867,37 +19873,37 @@
         <v>218</v>
       </c>
       <c r="B187">
-        <v>160.3059094431125</v>
+        <v>435.3883392090182</v>
       </c>
       <c r="C187">
-        <v>-0.0547632678611702</v>
+        <v>0.03374124610387696</v>
       </c>
       <c r="D187">
-        <v>-0.4227590021139238</v>
+        <v>0.4335510892711167</v>
       </c>
       <c r="E187">
-        <v>-0.2462515638554208</v>
+        <v>0.8718990779042277</v>
       </c>
       <c r="F187">
-        <v>-0.4174050340891349</v>
+        <v>0.4468474190917053</v>
       </c>
       <c r="G187">
-        <v>-0.5828986827674719</v>
+        <v>0.03585166307455578</v>
       </c>
       <c r="H187">
-        <v>-0.2832062816670808</v>
+        <v>0.7801237602004989</v>
       </c>
       <c r="I187">
-        <v>38.23878989820744</v>
+        <v>45.68604418462102</v>
       </c>
       <c r="J187">
-        <v>30.49858367836571</v>
+        <v>42.90642980962252</v>
       </c>
       <c r="K187">
-        <v>152.9551595928298</v>
+        <v>182.744176738484</v>
       </c>
       <c r="L187">
-        <v>121.9943347134628</v>
+        <v>171.6257192384901</v>
       </c>
       <c r="M187">
         <v>6078400000</v>
@@ -19960,7 +19966,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG187">
-        <v>27.77196667936328</v>
+        <v>68.97038365292924</v>
       </c>
     </row>
     <row r="188" spans="1:33">
@@ -19968,37 +19974,37 @@
         <v>219</v>
       </c>
       <c r="B188">
-        <v>151.1794238904235</v>
+        <v>448.9066409666861</v>
       </c>
       <c r="C188">
-        <v>-0.05693168507881891</v>
+        <v>0.03104883741771063</v>
       </c>
       <c r="D188">
-        <v>-0.4470303110790906</v>
+        <v>0.5018570140587306</v>
       </c>
       <c r="E188">
-        <v>-0.2723290639017838</v>
+        <v>0.9763428650826076</v>
       </c>
       <c r="F188">
-        <v>-0.4539989573890103</v>
+        <v>0.4829302798294621</v>
       </c>
       <c r="G188">
-        <v>-0.6028099429661626</v>
+        <v>0.07876197379776428</v>
       </c>
       <c r="H188">
-        <v>-0.3305244874245579</v>
+        <v>0.8182850062976976</v>
       </c>
       <c r="I188">
-        <v>41.19659638100715</v>
+        <v>49.44862566422835</v>
       </c>
       <c r="J188">
-        <v>31.2549651604208</v>
+        <v>45.96890192843262</v>
       </c>
       <c r="K188">
-        <v>164.7863855240286</v>
+        <v>197.7945026569134</v>
       </c>
       <c r="L188">
-        <v>125.0198606416832</v>
+        <v>183.8756077137305</v>
       </c>
       <c r="M188">
         <v>6078400000</v>
@@ -20061,7 +20067,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG188">
-        <v>26.25108302906982</v>
+        <v>71.29753034164153</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -20069,37 +20075,37 @@
         <v>220</v>
       </c>
       <c r="B189">
-        <v>142.1830312135039</v>
+        <v>461.9383702788952</v>
       </c>
       <c r="C189">
-        <v>-0.05950804974253843</v>
+        <v>0.02902993211271346</v>
       </c>
       <c r="D189">
-        <v>-0.4752536595361817</v>
+        <v>0.5581625527817307</v>
       </c>
       <c r="E189">
-        <v>-0.3090520028253309</v>
+        <v>1.051675661359547</v>
       </c>
       <c r="F189">
-        <v>-0.4695458810862332</v>
+        <v>0.5751110209357406</v>
       </c>
       <c r="G189">
-        <v>-0.6289164797365301</v>
+        <v>0.1018818058223832</v>
       </c>
       <c r="H189">
-        <v>-0.3696918071989675</v>
+        <v>0.8716140485439254</v>
       </c>
       <c r="I189">
-        <v>44.37226640105234</v>
+        <v>53.19243032446231</v>
       </c>
       <c r="J189">
-        <v>32.15613859443433</v>
+        <v>49.22950148719607</v>
       </c>
       <c r="K189">
-        <v>177.4890656042094</v>
+        <v>212.7697212978492</v>
       </c>
       <c r="L189">
-        <v>128.6245543777374</v>
+        <v>196.9180059487843</v>
       </c>
       <c r="M189">
         <v>6078400000</v>
@@ -20162,7 +20168,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG189">
-        <v>24.75656463708089</v>
+        <v>73.51123576950346</v>
       </c>
     </row>
     <row r="190" spans="1:33">
@@ -20170,37 +20176,37 @@
         <v>221</v>
       </c>
       <c r="B190">
-        <v>133.3796386966534</v>
+        <v>474.3082065532283</v>
       </c>
       <c r="C190">
-        <v>-0.06191591529393728</v>
+        <v>0.02677810952760822</v>
       </c>
       <c r="D190">
-        <v>-0.5107259868299645</v>
+        <v>0.5896020666783695</v>
       </c>
       <c r="E190">
-        <v>-0.3680754168288715</v>
+        <v>1.053059423461757</v>
       </c>
       <c r="F190">
-        <v>-0.4922034599517717</v>
+        <v>0.6497798938531971</v>
       </c>
       <c r="G190">
-        <v>-0.6463108676280997</v>
+        <v>0.1491004235793414</v>
       </c>
       <c r="H190">
-        <v>-0.3897723982253051</v>
+        <v>0.9825681127849579</v>
       </c>
       <c r="I190">
-        <v>47.93205259070116</v>
+        <v>57.34903396106122</v>
       </c>
       <c r="J190">
-        <v>33.22826966233314</v>
+        <v>52.66478149751434</v>
       </c>
       <c r="K190">
-        <v>191.7282103628046</v>
+        <v>229.3961358442449</v>
       </c>
       <c r="L190">
-        <v>132.9130786493325</v>
+        <v>210.6591259900574</v>
       </c>
       <c r="M190">
         <v>6078400000</v>
@@ -20263,7 +20269,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG190">
-        <v>23.28334975720311</v>
+        <v>75.64526195341381</v>
       </c>
     </row>
     <row r="191" spans="1:33">
@@ -20271,37 +20277,37 @@
         <v>222</v>
       </c>
       <c r="B191">
-        <v>124.7940410591405</v>
+        <v>484.7597827939662</v>
       </c>
       <c r="C191">
-        <v>-0.06436962733899115</v>
+        <v>0.02203541093393457</v>
       </c>
       <c r="D191">
-        <v>-0.5481719743185144</v>
+        <v>0.6067350506089548</v>
       </c>
       <c r="E191">
-        <v>-0.4321854314077547</v>
+        <v>1.019192076957849</v>
       </c>
       <c r="F191">
-        <v>-0.5008247282814176</v>
+        <v>0.7751054823520218</v>
       </c>
       <c r="G191">
-        <v>-0.6722859000082226</v>
+        <v>0.1653764288777109</v>
       </c>
       <c r="H191">
-        <v>-0.4230984409289914</v>
+        <v>1.051506110786887</v>
       </c>
       <c r="I191">
-        <v>51.65282031526208</v>
+        <v>61.50907542550453</v>
       </c>
       <c r="J191">
-        <v>34.51251267297131</v>
+        <v>56.24488194057645</v>
       </c>
       <c r="K191">
-        <v>206.6112812610484</v>
+        <v>246.0363017020181</v>
       </c>
       <c r="L191">
-        <v>138.0500506918852</v>
+        <v>224.9795277623058</v>
       </c>
       <c r="M191">
         <v>6078400000</v>
@@ -20364,7 +20370,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG191">
-        <v>21.84173984587701</v>
+        <v>77.67089906324695</v>
       </c>
     </row>
     <row r="192" spans="1:33">
@@ -20372,37 +20378,37 @@
         <v>223</v>
       </c>
       <c r="B192">
-        <v>116.5775926674825</v>
+        <v>492.8273056440977</v>
       </c>
       <c r="C192">
-        <v>-0.06584006994183433</v>
+        <v>0.01664231055561877</v>
       </c>
       <c r="D192">
-        <v>-0.5882743696926206</v>
+        <v>0.5993394029441541</v>
       </c>
       <c r="E192">
-        <v>-0.4581240147396168</v>
+        <v>1.10490567247201</v>
       </c>
       <c r="F192">
-        <v>-0.5340028127424096</v>
+        <v>0.8101561048939441</v>
       </c>
       <c r="G192">
-        <v>-0.7189323399568908</v>
+        <v>0.09180131259902291</v>
       </c>
       <c r="H192">
-        <v>-0.4666921322258952</v>
+        <v>1.071623003393018</v>
       </c>
       <c r="I192">
-        <v>55.48458696941152</v>
+        <v>65.50912346327029</v>
       </c>
       <c r="J192">
-        <v>35.92182511024226</v>
+        <v>59.87873985003362</v>
       </c>
       <c r="K192">
-        <v>221.938347877646</v>
+        <v>262.0364938530811</v>
       </c>
       <c r="L192">
-        <v>143.687300440969</v>
+        <v>239.5149594001344</v>
       </c>
       <c r="M192">
         <v>6078400000</v>
@@ -20465,7 +20471,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG192">
-        <v>20.43579519156271</v>
+        <v>79.38240924171373</v>
       </c>
     </row>
     <row r="193" spans="1:33">
@@ -20473,37 +20479,37 @@
         <v>224</v>
       </c>
       <c r="B193">
-        <v>108.7526104067395</v>
+        <v>498.3708337851641</v>
       </c>
       <c r="C193">
-        <v>-0.06712252399191715</v>
+        <v>0.01124841922835676</v>
       </c>
       <c r="D193">
-        <v>-0.615255469744282</v>
+        <v>0.6264927579013124</v>
       </c>
       <c r="E193">
-        <v>-0.4762911524213054</v>
+        <v>1.213959084147187</v>
       </c>
       <c r="F193">
-        <v>-0.5651712420235045</v>
+        <v>0.838221911318469</v>
       </c>
       <c r="G193">
-        <v>-0.735411731610159</v>
+        <v>0.1185367653588085</v>
       </c>
       <c r="H193">
-        <v>-0.4924789106821332</v>
+        <v>1.145525956428922</v>
       </c>
       <c r="I193">
-        <v>59.37369484294286</v>
+        <v>69.12897190774859</v>
       </c>
       <c r="J193">
-        <v>37.46542605808052</v>
+        <v>63.49404480527123</v>
       </c>
       <c r="K193">
-        <v>237.4947793717714</v>
+        <v>276.5158876309944</v>
       </c>
       <c r="L193">
-        <v>149.8617042323221</v>
+        <v>253.9761792210849</v>
       </c>
       <c r="M193">
         <v>6078400000</v>
@@ -20566,7 +20572,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG193">
-        <v>19.09030100683322</v>
+        <v>80.70351594896756</v>
       </c>
     </row>
     <row r="194" spans="1:33">
@@ -20574,37 +20580,37 @@
         <v>225</v>
       </c>
       <c r="B194">
-        <v>101.2539617997791</v>
+        <v>501.8936511025141</v>
       </c>
       <c r="C194">
-        <v>-0.06895143554637567</v>
+        <v>0.007068666700645362</v>
       </c>
       <c r="D194">
-        <v>-0.6434340642401983</v>
+        <v>0.6340027337218495</v>
       </c>
       <c r="E194">
-        <v>-0.5105643028785836</v>
+        <v>1.242893072141901</v>
       </c>
       <c r="F194">
-        <v>-0.6045359621573109</v>
+        <v>0.8122575774005965</v>
       </c>
       <c r="G194">
-        <v>-0.7597158441445837</v>
+        <v>0.1011286501644015</v>
       </c>
       <c r="H194">
-        <v>-0.5194316882891674</v>
+        <v>1.202257300328803</v>
       </c>
       <c r="I194">
-        <v>63.30733666984769</v>
+        <v>72.45792007205762</v>
       </c>
       <c r="J194">
-        <v>39.08090379768949</v>
+        <v>67.0190876253256</v>
       </c>
       <c r="K194">
-        <v>253.2293466793908</v>
+        <v>289.8316802882305</v>
       </c>
       <c r="L194">
-        <v>156.3236151907579</v>
+        <v>268.0763505013024</v>
       </c>
       <c r="M194">
         <v>6078400000</v>
@@ -20667,7 +20673,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG194">
-        <v>17.80891181948914</v>
+        <v>81.61130292956393</v>
       </c>
     </row>
     <row r="195" spans="1:33">
@@ -20675,37 +20681,37 @@
         <v>226</v>
       </c>
       <c r="B195">
-        <v>93.82461998911022</v>
+        <v>502.8805141745871</v>
       </c>
       <c r="C195">
-        <v>-0.07337334439673349</v>
+        <v>0.001966279250405059</v>
       </c>
       <c r="D195">
-        <v>-0.6744245601293276</v>
+        <v>0.6138059520981161</v>
       </c>
       <c r="E195">
-        <v>-0.5428715042899364</v>
+        <v>1.265885558024895</v>
       </c>
       <c r="F195">
-        <v>-0.6304599934314632</v>
+        <v>0.8317286536588107</v>
       </c>
       <c r="G195">
-        <v>-0.7716419413767116</v>
+        <v>0.1319207442742671</v>
       </c>
       <c r="H195">
-        <v>-0.5547319062555854</v>
+        <v>1.207096150279507</v>
       </c>
       <c r="I195">
-        <v>67.16153204137915</v>
+        <v>75.86449163011484</v>
       </c>
       <c r="J195">
-        <v>40.75331383813558</v>
+        <v>70.4115503538672</v>
       </c>
       <c r="K195">
-        <v>268.6461281655165</v>
+        <v>303.4579665204594</v>
       </c>
       <c r="L195">
-        <v>163.0132553525423</v>
+        <v>281.6462014154688</v>
       </c>
       <c r="M195">
         <v>6078400000</v>
@@ -20768,7 +20774,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG195">
-        <v>16.58096178401654</v>
+        <v>82.18818602897842</v>
       </c>
     </row>
     <row r="196" spans="1:33">
@@ -20776,37 +20782,37 @@
         <v>227</v>
       </c>
       <c r="B196">
-        <v>86.6642514411667</v>
+        <v>502.2616954478405</v>
       </c>
       <c r="C196">
-        <v>-0.07631652064004724</v>
+        <v>-0.001230548230253675</v>
       </c>
       <c r="D196">
-        <v>-0.7011954777416872</v>
+        <v>0.601530299919067</v>
       </c>
       <c r="E196">
-        <v>-0.5811400893343294</v>
+        <v>1.245002295422263</v>
       </c>
       <c r="F196">
-        <v>-0.6649120714674635</v>
+        <v>0.796001836337811</v>
       </c>
       <c r="G196">
-        <v>-0.7960334348062821</v>
+        <v>0.09321850907518936</v>
       </c>
       <c r="H196">
-        <v>-0.583001688937288</v>
+        <v>1.235024507442609</v>
       </c>
       <c r="I196">
-        <v>70.75173236344556</v>
+        <v>79.143468047242</v>
       </c>
       <c r="J196">
-        <v>42.58923745430013</v>
+        <v>73.62386994725709</v>
       </c>
       <c r="K196">
-        <v>283.0069294537823</v>
+        <v>316.5738721889679</v>
       </c>
       <c r="L196">
-        <v>170.3569498172005</v>
+        <v>294.4954797890283</v>
       </c>
       <c r="M196">
         <v>6078400000</v>
@@ -20869,7 +20875,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG196">
-        <v>15.36436116460882</v>
+        <v>82.34979095379565</v>
       </c>
     </row>
     <row r="197" spans="1:33">
@@ -20877,37 +20883,37 @@
         <v>228</v>
       </c>
       <c r="B197">
-        <v>79.8368855349831</v>
+        <v>499.695217733586</v>
       </c>
       <c r="C197">
-        <v>-0.07877949434339093</v>
+        <v>-0.00510984161745813</v>
       </c>
       <c r="D197">
-        <v>-0.7096674993595755</v>
+        <v>0.6826187452188961</v>
       </c>
       <c r="E197">
-        <v>-0.6180508868558878</v>
+        <v>1.213581793558711</v>
       </c>
       <c r="F197">
-        <v>-0.6912566880216335</v>
+        <v>0.7893183954598324</v>
       </c>
       <c r="G197">
-        <v>-0.8032146851901705</v>
+        <v>0.1404670808553568</v>
       </c>
       <c r="H197">
-        <v>-0.6114581920850428</v>
+        <v>1.251789682026109</v>
       </c>
       <c r="I197">
-        <v>74.27315270299027</v>
+        <v>81.79048080807431</v>
       </c>
       <c r="J197">
-        <v>44.47684079776428</v>
+        <v>76.63544253562678</v>
       </c>
       <c r="K197">
-        <v>297.0926108119611</v>
+        <v>327.1619232322972</v>
       </c>
       <c r="L197">
-        <v>177.9073631910571</v>
+        <v>306.5417701425071</v>
       </c>
       <c r="M197">
         <v>6078400000</v>
@@ -20970,7 +20976,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG197">
-        <v>14.19180657866881</v>
+        <v>82.24845556427569</v>
       </c>
     </row>
     <row r="198" spans="1:33">
@@ -20978,37 +20984,37 @@
         <v>229</v>
       </c>
       <c r="B198">
-        <v>73.32063505691561</v>
+        <v>495.2324913887589</v>
       </c>
       <c r="C198">
-        <v>-0.08161954758633694</v>
+        <v>-0.008930896647496939</v>
       </c>
       <c r="D198">
-        <v>-0.7221131607129954</v>
+        <v>0.739280330543109</v>
       </c>
       <c r="E198">
-        <v>-0.6524297492569293</v>
+        <v>1.17542544350221</v>
       </c>
       <c r="F198">
-        <v>-0.7196738449545884</v>
+        <v>0.7545478902788161</v>
       </c>
       <c r="G198">
-        <v>-0.8163825028141499</v>
+        <v>0.1492530629313571</v>
       </c>
       <c r="H198">
-        <v>-0.639562593521521</v>
+        <v>1.255960350941697</v>
       </c>
       <c r="I198">
-        <v>77.61414232570696</v>
+        <v>83.93250461507745</v>
       </c>
       <c r="J198">
-        <v>46.41224180866715</v>
+        <v>79.42255450796165</v>
       </c>
       <c r="K198">
-        <v>310.4565693028279</v>
+        <v>335.7300184603099</v>
       </c>
       <c r="L198">
-        <v>185.6489672346686</v>
+        <v>317.6902180318466</v>
       </c>
       <c r="M198">
         <v>6078400000</v>
@@ -21071,7 +21077,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG198">
-        <v>13.07378323258208</v>
+        <v>81.82817898306169</v>
       </c>
     </row>
     <row r="199" spans="1:33">
@@ -21079,37 +21085,37 @@
         <v>230</v>
       </c>
       <c r="B199">
-        <v>67.0915858760216</v>
+        <v>488.8038350739088</v>
       </c>
       <c r="C199">
-        <v>-0.08495629062757939</v>
+        <v>-0.01298108752279642</v>
       </c>
       <c r="D199">
-        <v>-0.7306379730679158</v>
+        <v>0.6674494659554171</v>
       </c>
       <c r="E199">
-        <v>-0.6762885869451849</v>
+        <v>1.18645691562366</v>
       </c>
       <c r="F199">
-        <v>-0.7454144616079319</v>
+        <v>0.719557261766524</v>
       </c>
       <c r="G199">
-        <v>-0.8347890106497267</v>
+        <v>0.1158911784823735</v>
       </c>
       <c r="H199">
-        <v>-0.6753569489685558</v>
+        <v>1.192749515188302</v>
       </c>
       <c r="I199">
-        <v>80.84697592260798</v>
+        <v>85.41381042084286</v>
       </c>
       <c r="J199">
-        <v>48.40592727641924</v>
+        <v>81.96456806009186</v>
       </c>
       <c r="K199">
-        <v>323.3879036904319</v>
+        <v>341.6552416833714</v>
       </c>
       <c r="L199">
-        <v>193.6237091056769</v>
+        <v>327.8582722403675</v>
       </c>
       <c r="M199">
         <v>6078400000</v>
@@ -21172,7 +21178,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG199">
-        <v>12.00670695989689</v>
+        <v>81.0973799737111</v>
       </c>
     </row>
     <row r="200" spans="1:33">
@@ -21180,37 +21186,37 @@
         <v>231</v>
       </c>
       <c r="B200">
-        <v>61.13012513303529</v>
+        <v>481.1052862558607</v>
       </c>
       <c r="C200">
-        <v>-0.08885556460093941</v>
+        <v>-0.01574977171953665</v>
       </c>
       <c r="D200">
-        <v>-0.7399796413159921</v>
+        <v>0.6480236851489229</v>
       </c>
       <c r="E200">
-        <v>-0.7026082266804687</v>
+        <v>1.166683607489015</v>
       </c>
       <c r="F200">
-        <v>-0.7658234349877082</v>
+        <v>0.7061215883906067</v>
       </c>
       <c r="G200">
-        <v>-0.8484833158862003</v>
+        <v>0.1038930635708355</v>
       </c>
       <c r="H200">
-        <v>-0.6951075439874408</v>
+        <v>1.221330735264464</v>
       </c>
       <c r="I200">
-        <v>83.83598830120086</v>
+        <v>86.40840113633601</v>
       </c>
       <c r="J200">
-        <v>50.46806406830595</v>
+        <v>84.23800006199777</v>
       </c>
       <c r="K200">
-        <v>335.3439532048034</v>
+        <v>345.6336045453441</v>
       </c>
       <c r="L200">
-        <v>201.8722562732238</v>
+        <v>336.952000247991</v>
       </c>
       <c r="M200">
         <v>6078400000</v>
@@ -21273,7 +21279,7 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG200">
-        <v>10.98666167393171</v>
+        <v>80.04464778640286</v>
       </c>
     </row>
     <row r="201" spans="1:33">
@@ -21281,37 +21287,37 @@
         <v>232</v>
       </c>
       <c r="B201">
-        <v>55.42810621126658</v>
+        <v>472.2448625175754</v>
       </c>
       <c r="C201">
-        <v>-0.09327674218496373</v>
+        <v>-0.01841680811125657</v>
       </c>
       <c r="D201">
-        <v>-0.7502722610583999</v>
+        <v>0.5428658522381276</v>
       </c>
       <c r="E201">
-        <v>-0.72376807821942</v>
+        <v>1.173995841036385</v>
       </c>
       <c r="F201">
-        <v>-0.782377620287302</v>
+        <v>0.71272800537388</v>
       </c>
       <c r="G201">
-        <v>-0.8688757538987613</v>
+        <v>0.03197184396942987</v>
       </c>
       <c r="H201">
-        <v>-0.723455669354947</v>
+        <v>1.176454556045458</v>
       </c>
       <c r="I201">
-        <v>86.67253827860181</v>
+        <v>86.78549086410962</v>
       </c>
       <c r="J201">
-        <v>52.52103763794684</v>
+        <v>86.2635883934468</v>
       </c>
       <c r="K201">
-        <v>346.6901531144073</v>
+        <v>347.1419634564385</v>
       </c>
       <c r="L201">
-        <v>210.0841505517874</v>
+        <v>345.0543535737872</v>
       </c>
       <c r="M201">
         <v>6078400000</v>
@@ -21374,7 +21380,209 @@
         <v>0.08730478240406821</v>
       </c>
       <c r="AG201">
-        <v>10.010435647815</v>
+        <v>78.7839628563963</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33">
+      <c r="A202" t="s">
+        <v>233</v>
+      </c>
+      <c r="B202">
+        <v>462.1575523638398</v>
+      </c>
+      <c r="C202">
+        <v>-0.02136033857511835</v>
+      </c>
+      <c r="D202">
+        <v>0.4424726071923781</v>
+      </c>
+      <c r="E202">
+        <v>1.12244882030371</v>
+      </c>
+      <c r="F202">
+        <v>0.652939595170074</v>
+      </c>
+      <c r="G202">
+        <v>0.02217502709431907</v>
+      </c>
+      <c r="H202">
+        <v>1.166260837236584</v>
+      </c>
+      <c r="I202">
+        <v>86.74916067914454</v>
+      </c>
+      <c r="J202">
+        <v>88.03503774812545</v>
+      </c>
+      <c r="K202">
+        <v>346.9966427165781</v>
+      </c>
+      <c r="L202">
+        <v>352.1401509925017</v>
+      </c>
+      <c r="M202">
+        <v>6078400000</v>
+      </c>
+      <c r="N202">
+        <v>-0.1235859150819513</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>8159800000</v>
+      </c>
+      <c r="Q202">
+        <v>0.1342665313668525</v>
+      </c>
+      <c r="R202">
+        <v>3178500000</v>
+      </c>
+      <c r="S202">
+        <v>0.1402281532501075</v>
+      </c>
+      <c r="T202">
+        <v>448100000</v>
+      </c>
+      <c r="U202">
+        <v>0.3336309523809524</v>
+      </c>
+      <c r="V202">
+        <v>4329800000</v>
+      </c>
+      <c r="W202">
+        <v>0.1807472047995637</v>
+      </c>
+      <c r="X202">
+        <v>3830000000</v>
+      </c>
+      <c r="Y202">
+        <v>1893100000</v>
+      </c>
+      <c r="Z202">
+        <v>0.2710487444608567</v>
+      </c>
+      <c r="AA202">
+        <v>3830000000</v>
+      </c>
+      <c r="AB202">
+        <v>77.06237424547284</v>
+      </c>
+      <c r="AC202">
+        <v>0.2367017061961862</v>
+      </c>
+      <c r="AD202">
+        <v>0.0492366702636895</v>
+      </c>
+      <c r="AE202">
+        <v>1.130496083550914</v>
+      </c>
+      <c r="AF202">
+        <v>0.08730478240406821</v>
+      </c>
+      <c r="AG202">
+        <v>77.33301373022569</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33">
+      <c r="A203" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203">
+        <v>450.8496137568264</v>
+      </c>
+      <c r="C203">
+        <v>-0.02446771355174344</v>
+      </c>
+      <c r="D203">
+        <v>0.3464251244559249</v>
+      </c>
+      <c r="E203">
+        <v>1.086490078392053</v>
+      </c>
+      <c r="F203">
+        <v>0.6238845483219784</v>
+      </c>
+      <c r="G203">
+        <v>0.03483552630475817</v>
+      </c>
+      <c r="H203">
+        <v>1.12096174992732</v>
+      </c>
+      <c r="I203">
+        <v>86.43252530003328</v>
+      </c>
+      <c r="J203">
+        <v>89.54592468887587</v>
+      </c>
+      <c r="K203">
+        <v>345.730101200133</v>
+      </c>
+      <c r="L203">
+        <v>358.1836987555035</v>
+      </c>
+      <c r="M203">
+        <v>6078400000</v>
+      </c>
+      <c r="N203">
+        <v>-0.1235859150819513</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>8159800000</v>
+      </c>
+      <c r="Q203">
+        <v>0.1342665313668525</v>
+      </c>
+      <c r="R203">
+        <v>3178500000</v>
+      </c>
+      <c r="S203">
+        <v>0.1402281532501075</v>
+      </c>
+      <c r="T203">
+        <v>448100000</v>
+      </c>
+      <c r="U203">
+        <v>0.3336309523809524</v>
+      </c>
+      <c r="V203">
+        <v>4329800000</v>
+      </c>
+      <c r="W203">
+        <v>0.1807472047995637</v>
+      </c>
+      <c r="X203">
+        <v>3830000000</v>
+      </c>
+      <c r="Y203">
+        <v>1893100000</v>
+      </c>
+      <c r="Z203">
+        <v>0.2710487444608567</v>
+      </c>
+      <c r="AA203">
+        <v>3830000000</v>
+      </c>
+      <c r="AB203">
+        <v>77.06237424547284</v>
+      </c>
+      <c r="AC203">
+        <v>0.2367017061961862</v>
+      </c>
+      <c r="AD203">
+        <v>0.0492366702636895</v>
+      </c>
+      <c r="AE203">
+        <v>1.130496083550914</v>
+      </c>
+      <c r="AF203">
+        <v>0.08730478240406821</v>
+      </c>
+      <c r="AG203">
+        <v>75.6811543739138</v>
       </c>
     </row>
   </sheetData>
